--- a/Results and Graphs/rators_vs_gpt.xlsx
+++ b/Results and Graphs/rators_vs_gpt.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hagitbenshoshan/Documents/Wellesley/Wellesely/Results and Graphs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8CD99889-15D4-9044-8B84-A8D78C9B76E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{389B27DA-D0DD-854E-9E47-8F17FA7D9BE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3660" yWindow="2660" windowWidth="27640" windowHeight="16940" xr2:uid="{BE5A8F84-FC19-2E4C-AB17-3586BDC5AD8D}"/>
+    <workbookView xWindow="4640" yWindow="3400" windowWidth="27640" windowHeight="16940" xr2:uid="{BE5A8F84-FC19-2E4C-AB17-3586BDC5AD8D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -132,11 +132,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -453,11 +454,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAA903EC-45B7-DA46-9014-80B930D3675C}">
   <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:I29"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="15.6640625" customWidth="1"/>
+    <col min="4" max="4" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -859,20 +865,23 @@
       <c r="C15" s="3">
         <v>10</v>
       </c>
-      <c r="D15" s="3">
-        <v>12.35</v>
+      <c r="D15" s="4">
+        <f>100*(C15/108)</f>
+        <v>9.2592592592592595</v>
       </c>
       <c r="E15" s="3">
         <v>4</v>
       </c>
-      <c r="F15" s="3">
-        <v>4.9400000000000004</v>
+      <c r="F15" s="4">
+        <f>100*(E15/108)</f>
+        <v>3.7037037037037033</v>
       </c>
       <c r="G15" s="3">
         <v>9</v>
       </c>
-      <c r="H15" s="3">
-        <v>11.11</v>
+      <c r="H15" s="4">
+        <f>100*(G15/108)</f>
+        <v>8.3333333333333321</v>
       </c>
       <c r="I15" s="1" t="s">
         <v>13</v>
@@ -888,20 +897,23 @@
       <c r="C16" s="3">
         <v>4</v>
       </c>
-      <c r="D16" s="3">
-        <v>4.9400000000000004</v>
+      <c r="D16" s="4">
+        <f t="shared" ref="D16:D29" si="0">100*(C16/108)</f>
+        <v>3.7037037037037033</v>
       </c>
       <c r="E16" s="3">
         <v>2</v>
       </c>
-      <c r="F16" s="3">
-        <v>2.4700000000000002</v>
+      <c r="F16" s="4">
+        <f t="shared" ref="F16:F29" si="1">100*(E16/108)</f>
+        <v>1.8518518518518516</v>
       </c>
       <c r="G16" s="3">
         <v>2</v>
       </c>
-      <c r="H16" s="3">
-        <v>2.4700000000000002</v>
+      <c r="H16" s="4">
+        <f t="shared" ref="H16:H29" si="2">100*(G16/108)</f>
+        <v>1.8518518518518516</v>
       </c>
       <c r="I16" s="1" t="s">
         <v>13</v>
@@ -917,20 +929,23 @@
       <c r="C17" s="3">
         <v>21</v>
       </c>
-      <c r="D17" s="3">
-        <v>25.93</v>
+      <c r="D17" s="4">
+        <f t="shared" si="0"/>
+        <v>19.444444444444446</v>
       </c>
       <c r="E17" s="3">
         <v>12</v>
       </c>
-      <c r="F17" s="3">
-        <v>14.81</v>
+      <c r="F17" s="4">
+        <f t="shared" si="1"/>
+        <v>11.111111111111111</v>
       </c>
       <c r="G17" s="3">
         <v>16</v>
       </c>
-      <c r="H17" s="3">
-        <v>19.75</v>
+      <c r="H17" s="4">
+        <f t="shared" si="2"/>
+        <v>14.814814814814813</v>
       </c>
       <c r="I17" s="1" t="s">
         <v>13</v>
@@ -946,20 +961,23 @@
       <c r="C18" s="1">
         <v>7</v>
       </c>
-      <c r="D18" s="1">
-        <v>8.64</v>
+      <c r="D18" s="4">
+        <f t="shared" si="0"/>
+        <v>6.481481481481481</v>
       </c>
       <c r="E18" s="1">
         <v>6</v>
       </c>
-      <c r="F18" s="1">
-        <v>7.41</v>
+      <c r="F18" s="4">
+        <f t="shared" si="1"/>
+        <v>5.5555555555555554</v>
       </c>
       <c r="G18" s="1">
         <v>8</v>
       </c>
-      <c r="H18" s="1">
-        <v>9.8800000000000008</v>
+      <c r="H18" s="4">
+        <f t="shared" si="2"/>
+        <v>7.4074074074074066</v>
       </c>
       <c r="I18" s="1" t="s">
         <v>13</v>
@@ -975,20 +993,23 @@
       <c r="C19" s="1">
         <v>4</v>
       </c>
-      <c r="D19" s="1">
-        <v>4.9400000000000004</v>
+      <c r="D19" s="4">
+        <f t="shared" si="0"/>
+        <v>3.7037037037037033</v>
       </c>
       <c r="E19" s="1">
         <v>4</v>
       </c>
-      <c r="F19" s="1">
-        <v>4.9400000000000004</v>
+      <c r="F19" s="4">
+        <f t="shared" si="1"/>
+        <v>3.7037037037037033</v>
       </c>
       <c r="G19" s="1">
         <v>6</v>
       </c>
-      <c r="H19" s="1">
-        <v>7.41</v>
+      <c r="H19" s="4">
+        <f t="shared" si="2"/>
+        <v>5.5555555555555554</v>
       </c>
       <c r="I19" s="1" t="s">
         <v>13</v>
@@ -1004,20 +1025,23 @@
       <c r="C20" s="1">
         <v>18</v>
       </c>
-      <c r="D20" s="1">
-        <v>22.22</v>
+      <c r="D20" s="4">
+        <f t="shared" si="0"/>
+        <v>16.666666666666664</v>
       </c>
       <c r="E20" s="1">
         <v>13</v>
       </c>
-      <c r="F20" s="1">
-        <v>16.05</v>
+      <c r="F20" s="4">
+        <f t="shared" si="1"/>
+        <v>12.037037037037036</v>
       </c>
       <c r="G20" s="1">
         <v>19</v>
       </c>
-      <c r="H20" s="1">
-        <v>23.46</v>
+      <c r="H20" s="4">
+        <f t="shared" si="2"/>
+        <v>17.592592592592592</v>
       </c>
       <c r="I20" s="1" t="s">
         <v>13</v>
@@ -1031,19 +1055,26 @@
         <v>11</v>
       </c>
       <c r="C21" s="1">
-        <v>1</v>
-      </c>
-      <c r="D21" s="1">
-        <v>1.23</v>
+        <v>4</v>
+      </c>
+      <c r="D21" s="4">
+        <f t="shared" si="0"/>
+        <v>3.7037037037037033</v>
       </c>
       <c r="E21" s="1">
         <v>4</v>
       </c>
-      <c r="F21" s="1">
-        <v>4.9400000000000004</v>
-      </c>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
+      <c r="F21" s="4">
+        <f t="shared" si="1"/>
+        <v>3.7037037037037033</v>
+      </c>
+      <c r="G21" s="1">
+        <v>3</v>
+      </c>
+      <c r="H21" s="4">
+        <f t="shared" si="2"/>
+        <v>2.7777777777777777</v>
+      </c>
       <c r="I21" s="1" t="s">
         <v>13</v>
       </c>
@@ -1055,16 +1086,27 @@
       <c r="B22" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
+      <c r="C22" s="1">
+        <v>2</v>
+      </c>
+      <c r="D22" s="4">
+        <f t="shared" si="0"/>
+        <v>1.8518518518518516</v>
+      </c>
       <c r="E22" s="1">
         <v>1</v>
       </c>
-      <c r="F22" s="1">
-        <v>1.23</v>
-      </c>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
+      <c r="F22" s="4">
+        <f t="shared" si="1"/>
+        <v>0.92592592592592582</v>
+      </c>
+      <c r="G22" s="1">
+        <v>2</v>
+      </c>
+      <c r="H22" s="4">
+        <f t="shared" si="2"/>
+        <v>1.8518518518518516</v>
+      </c>
       <c r="I22" s="1" t="s">
         <v>13</v>
       </c>
@@ -1077,22 +1119,25 @@
         <v>9</v>
       </c>
       <c r="C23" s="1">
-        <v>9</v>
-      </c>
-      <c r="D23" s="1">
-        <v>11.11</v>
+        <v>16</v>
+      </c>
+      <c r="D23" s="4">
+        <f t="shared" si="0"/>
+        <v>14.814814814814813</v>
       </c>
       <c r="E23" s="1">
-        <v>15</v>
-      </c>
-      <c r="F23" s="1">
-        <v>18.52</v>
+        <v>17</v>
+      </c>
+      <c r="F23" s="4">
+        <f t="shared" si="1"/>
+        <v>15.74074074074074</v>
       </c>
       <c r="G23" s="1">
-        <v>14</v>
-      </c>
-      <c r="H23" s="1">
-        <v>17.28</v>
+        <v>21</v>
+      </c>
+      <c r="H23" s="4">
+        <f t="shared" si="2"/>
+        <v>19.444444444444446</v>
       </c>
       <c r="I23" s="1" t="s">
         <v>13</v>
@@ -1105,19 +1150,26 @@
       <c r="B24" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
+      <c r="C24" s="1">
+        <v>3</v>
+      </c>
+      <c r="D24" s="4">
+        <f t="shared" si="0"/>
+        <v>2.7777777777777777</v>
+      </c>
       <c r="E24" s="1">
-        <v>2</v>
-      </c>
-      <c r="F24" s="1">
-        <v>2.4700000000000002</v>
+        <v>8</v>
+      </c>
+      <c r="F24" s="4">
+        <f t="shared" si="1"/>
+        <v>7.4074074074074066</v>
       </c>
       <c r="G24" s="1">
-        <v>1</v>
-      </c>
-      <c r="H24" s="1">
-        <v>1.23</v>
+        <v>4</v>
+      </c>
+      <c r="H24" s="4">
+        <f t="shared" si="2"/>
+        <v>3.7037037037037033</v>
       </c>
       <c r="I24" s="1" t="s">
         <v>13</v>
@@ -1131,22 +1183,25 @@
         <v>12</v>
       </c>
       <c r="C25" s="1">
-        <v>1</v>
-      </c>
-      <c r="D25" s="1">
-        <v>1.23</v>
+        <v>2</v>
+      </c>
+      <c r="D25" s="4">
+        <f t="shared" si="0"/>
+        <v>1.8518518518518516</v>
       </c>
       <c r="E25" s="1">
-        <v>1</v>
-      </c>
-      <c r="F25" s="1">
-        <v>1.23</v>
+        <v>4</v>
+      </c>
+      <c r="F25" s="4">
+        <f t="shared" si="1"/>
+        <v>3.7037037037037033</v>
       </c>
       <c r="G25" s="1">
-        <v>1</v>
-      </c>
-      <c r="H25" s="1">
-        <v>1.23</v>
+        <v>2</v>
+      </c>
+      <c r="H25" s="4">
+        <f t="shared" si="2"/>
+        <v>1.8518518518518516</v>
       </c>
       <c r="I25" s="1" t="s">
         <v>13</v>
@@ -1160,22 +1215,25 @@
         <v>9</v>
       </c>
       <c r="C26" s="1">
-        <v>6</v>
-      </c>
-      <c r="D26" s="1">
-        <v>7.41</v>
+        <v>17</v>
+      </c>
+      <c r="D26" s="4">
+        <f t="shared" si="0"/>
+        <v>15.74074074074074</v>
       </c>
       <c r="E26" s="1">
-        <v>7</v>
-      </c>
-      <c r="F26" s="1">
-        <v>8.64</v>
+        <v>23</v>
+      </c>
+      <c r="F26" s="4">
+        <f t="shared" si="1"/>
+        <v>21.296296296296298</v>
       </c>
       <c r="G26" s="1">
-        <v>5</v>
-      </c>
-      <c r="H26" s="1">
-        <v>6.17</v>
+        <v>16</v>
+      </c>
+      <c r="H26" s="4">
+        <f t="shared" si="2"/>
+        <v>14.814814814814813</v>
       </c>
       <c r="I26" s="1" t="s">
         <v>13</v>
@@ -1189,15 +1247,22 @@
         <v>11</v>
       </c>
       <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
+      <c r="D27" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="E27" s="1">
         <v>2</v>
       </c>
-      <c r="F27" s="1">
-        <v>2.4700000000000002</v>
+      <c r="F27" s="4">
+        <f t="shared" si="1"/>
+        <v>1.8518518518518516</v>
       </c>
       <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
+      <c r="H27" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="I27" s="1" t="s">
         <v>13</v>
       </c>
@@ -1210,15 +1275,22 @@
         <v>12</v>
       </c>
       <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
+      <c r="D28" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="E28" s="1">
         <v>1</v>
       </c>
-      <c r="F28" s="1">
-        <v>1.23</v>
+      <c r="F28" s="4">
+        <f t="shared" si="1"/>
+        <v>0.92592592592592582</v>
       </c>
       <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
+      <c r="H28" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="I28" s="1" t="s">
         <v>13</v>
       </c>
@@ -1231,11 +1303,22 @@
         <v>9</v>
       </c>
       <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
+      <c r="D29" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E29" s="1">
+        <v>7</v>
+      </c>
+      <c r="F29" s="4">
+        <f t="shared" si="1"/>
+        <v>6.481481481481481</v>
+      </c>
       <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
+      <c r="H29" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="I29" s="1" t="s">
         <v>13</v>
       </c>
